--- a/Core/data.xlsx
+++ b/Core/data.xlsx
@@ -1,134 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg\source\repos\MarkReport\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kate\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C42FF20-A4CC-420E-A87C-E008D2C638DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="study_program" sheetId="4" r:id="rId1"/>
     <sheet name="students" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Курс</t>
   </si>
   <si>
-    <t>тип контроля</t>
-  </si>
-  <si>
-    <t>Фамилия Имя Отчество</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Специальность</t>
-  </si>
-  <si>
     <t>Образов.программа</t>
   </si>
   <si>
     <t>Семестр</t>
   </si>
   <si>
-    <t>Уч.год</t>
-  </si>
-  <si>
     <t>Кафедра</t>
   </si>
   <si>
-    <t>AT-201</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Alice Cooper</t>
-  </si>
-  <si>
-    <t>Ben Parker</t>
-  </si>
-  <si>
-    <t>Sasha Grey</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Speciality</t>
-  </si>
-  <si>
-    <t>Study Program</t>
-  </si>
-  <si>
-    <t>Control Type</t>
-  </si>
-  <si>
-    <t>дисциплина</t>
-  </si>
-  <si>
-    <t>Группы</t>
-  </si>
-  <si>
-    <t>AT-202</t>
-  </si>
-  <si>
-    <t>AT-201, AT-202</t>
-  </si>
-  <si>
-    <t>Subject1</t>
-  </si>
-  <si>
-    <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
+    <t>Безпека життєдіяльності та основи охорони праці</t>
+  </si>
+  <si>
+    <t>Сучасні системи управління базами даних</t>
+  </si>
+  <si>
+    <t>Методи та системи штучного інтелекту</t>
+  </si>
+  <si>
+    <t>Кросплатформне прграмування</t>
+  </si>
+  <si>
+    <t>Проектування інформаційних систем</t>
+  </si>
+  <si>
+    <t>ІСП</t>
+  </si>
+  <si>
+    <t>КР</t>
+  </si>
+  <si>
+    <t>ЗАЛ</t>
+  </si>
+  <si>
+    <t>АІ-181, АІ-182, АІ-183, АІ-185</t>
+  </si>
+  <si>
+    <t>Архіпов Дмитро Олександрович</t>
+  </si>
+  <si>
+    <t>АІ-181</t>
+  </si>
+  <si>
+    <t>АІ-182</t>
+  </si>
+  <si>
+    <t>Зенікова Олеся Іванівна</t>
+  </si>
+  <si>
+    <t>Комп`ютерні науки</t>
+  </si>
+  <si>
+    <t>122 Комп`ютерні науки</t>
+  </si>
+  <si>
+    <t>Інформаційні системи</t>
+  </si>
+  <si>
+    <t>Добровольска Галина Володимирівна</t>
+  </si>
+  <si>
+    <t>Аврамов Іван Дмитрович</t>
+  </si>
+  <si>
+    <t>Спеціальність</t>
+  </si>
+  <si>
+    <t>Уч.рік</t>
+  </si>
+  <si>
+    <t>Групи</t>
+  </si>
+  <si>
+    <t>Дисципліна</t>
+  </si>
+  <si>
+    <t>Тип контролю</t>
+  </si>
+  <si>
+    <t>Група</t>
+  </si>
+  <si>
+    <t>Прізвище ім'я по батькові</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arimo"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,17 +157,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,214 +449,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222D8D3B-9DBD-43FA-B396-8D9B13E6529B}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="7" customFormat="1" ht="14.4" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.4">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>2020</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:2" ht="14.4" thickBot="1">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:2" ht="13.8">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="13.8">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.8">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+    <row r="5" spans="1:2" ht="13.8">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>